--- a/NEW HR/New folder/NATANAUAN, ALDRICH.xlsx
+++ b/NEW HR/New folder/NATANAUAN, ALDRICH.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7FEC02A-B91D-44AA-9E27-097839E7C231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43FD1540-D382-4B2B-91C1-A5384F309261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -570,6 +570,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -582,20 +591,11 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2569,7 +2569,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2966,10 +2966,10 @@
   </sheetPr>
   <dimension ref="A2:K113"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="5172" topLeftCell="A48"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="5172" topLeftCell="A54" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomLeft" activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2999,14 +2999,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="55"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
@@ -3017,16 +3017,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="53">
+      <c r="F3" s="56">
         <v>43710</v>
       </c>
-      <c r="G3" s="54"/>
+      <c r="G3" s="50"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
@@ -3039,14 +3039,14 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="57"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="51"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
@@ -3072,18 +3072,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58" t="s">
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -3130,7 +3130,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>31.207999999999998</v>
+        <v>36.207999999999998</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3140,7 +3140,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>51.207999999999998</v>
+        <v>56.207999999999998</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4076,15 +4076,19 @@
       <c r="K55" s="20"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A56" s="40"/>
+      <c r="A56" s="40">
+        <v>44958</v>
+      </c>
       <c r="B56" s="20"/>
-      <c r="C56" s="13"/>
+      <c r="C56" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D56" s="39"/>
       <c r="E56" s="9"/>
       <c r="F56" s="20"/>
-      <c r="G56" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G56" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H56" s="39"/>
       <c r="I56" s="9"/>
@@ -4092,15 +4096,19 @@
       <c r="K56" s="20"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A57" s="40"/>
+      <c r="A57" s="40">
+        <v>44986</v>
+      </c>
       <c r="B57" s="20"/>
-      <c r="C57" s="13"/>
+      <c r="C57" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D57" s="39"/>
       <c r="E57" s="9"/>
       <c r="F57" s="20"/>
-      <c r="G57" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G57" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H57" s="39"/>
       <c r="I57" s="9"/>
@@ -4108,15 +4116,19 @@
       <c r="K57" s="20"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A58" s="40"/>
+      <c r="A58" s="40">
+        <v>45017</v>
+      </c>
       <c r="B58" s="20"/>
-      <c r="C58" s="13"/>
+      <c r="C58" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D58" s="39"/>
       <c r="E58" s="9"/>
       <c r="F58" s="20"/>
-      <c r="G58" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G58" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H58" s="39"/>
       <c r="I58" s="9"/>
@@ -4124,15 +4136,19 @@
       <c r="K58" s="20"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A59" s="40"/>
+      <c r="A59" s="40">
+        <v>45047</v>
+      </c>
       <c r="B59" s="20"/>
-      <c r="C59" s="13"/>
+      <c r="C59" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D59" s="39"/>
       <c r="E59" s="9"/>
       <c r="F59" s="20"/>
-      <c r="G59" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G59" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H59" s="39"/>
       <c r="I59" s="9"/>
@@ -4140,7 +4156,9 @@
       <c r="K59" s="20"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A60" s="40"/>
+      <c r="A60" s="40">
+        <v>45078</v>
+      </c>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
       <c r="D60" s="39"/>
@@ -4156,7 +4174,9 @@
       <c r="K60" s="20"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A61" s="40"/>
+      <c r="A61" s="40">
+        <v>45108</v>
+      </c>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
       <c r="D61" s="39"/>
@@ -4172,7 +4192,9 @@
       <c r="K61" s="20"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A62" s="40"/>
+      <c r="A62" s="40">
+        <v>45139</v>
+      </c>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
       <c r="D62" s="39"/>
@@ -4188,7 +4210,9 @@
       <c r="K62" s="20"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A63" s="40"/>
+      <c r="A63" s="40">
+        <v>45170</v>
+      </c>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
       <c r="D63" s="39"/>
@@ -4204,7 +4228,9 @@
       <c r="K63" s="20"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A64" s="40"/>
+      <c r="A64" s="40">
+        <v>45200</v>
+      </c>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
       <c r="D64" s="39"/>
@@ -4220,7 +4246,9 @@
       <c r="K64" s="20"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A65" s="40"/>
+      <c r="A65" s="40">
+        <v>45231</v>
+      </c>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
       <c r="D65" s="39"/>
@@ -4236,7 +4264,9 @@
       <c r="K65" s="20"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A66" s="40"/>
+      <c r="A66" s="40">
+        <v>45261</v>
+      </c>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
       <c r="D66" s="39"/>
@@ -4252,7 +4282,9 @@
       <c r="K66" s="20"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A67" s="40"/>
+      <c r="A67" s="40">
+        <v>45292</v>
+      </c>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
       <c r="D67" s="39"/>
@@ -4268,7 +4300,9 @@
       <c r="K67" s="20"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A68" s="40"/>
+      <c r="A68" s="40">
+        <v>45323</v>
+      </c>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
       <c r="D68" s="39"/>
@@ -4284,7 +4318,9 @@
       <c r="K68" s="20"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A69" s="40"/>
+      <c r="A69" s="40">
+        <v>45352</v>
+      </c>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
       <c r="D69" s="39"/>
@@ -4300,7 +4336,9 @@
       <c r="K69" s="20"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A70" s="40"/>
+      <c r="A70" s="40">
+        <v>45383</v>
+      </c>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
       <c r="D70" s="39"/>
@@ -4316,7 +4354,9 @@
       <c r="K70" s="20"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A71" s="40"/>
+      <c r="A71" s="40">
+        <v>45413</v>
+      </c>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
       <c r="D71" s="39"/>
@@ -4332,7 +4372,9 @@
       <c r="K71" s="20"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A72" s="40"/>
+      <c r="A72" s="40">
+        <v>45444</v>
+      </c>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
       <c r="D72" s="39"/>
@@ -4348,7 +4390,9 @@
       <c r="K72" s="20"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A73" s="40"/>
+      <c r="A73" s="40">
+        <v>45474</v>
+      </c>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
       <c r="D73" s="39"/>
@@ -4364,7 +4408,9 @@
       <c r="K73" s="20"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A74" s="40"/>
+      <c r="A74" s="40">
+        <v>45505</v>
+      </c>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
       <c r="D74" s="39"/>
@@ -4380,7 +4426,9 @@
       <c r="K74" s="20"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A75" s="40"/>
+      <c r="A75" s="40">
+        <v>45536</v>
+      </c>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
       <c r="D75" s="39"/>
@@ -4396,7 +4444,9 @@
       <c r="K75" s="20"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A76" s="40"/>
+      <c r="A76" s="40">
+        <v>45566</v>
+      </c>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
       <c r="D76" s="39"/>
@@ -4412,7 +4462,9 @@
       <c r="K76" s="20"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A77" s="40"/>
+      <c r="A77" s="40">
+        <v>45597</v>
+      </c>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
       <c r="D77" s="39"/>
@@ -4428,7 +4480,9 @@
       <c r="K77" s="20"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A78" s="40"/>
+      <c r="A78" s="40">
+        <v>45627</v>
+      </c>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
       <c r="D78" s="39"/>
@@ -4444,7 +4498,9 @@
       <c r="K78" s="20"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A79" s="40"/>
+      <c r="A79" s="40">
+        <v>45658</v>
+      </c>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
       <c r="D79" s="39"/>
@@ -4460,7 +4516,9 @@
       <c r="K79" s="20"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A80" s="40"/>
+      <c r="A80" s="40">
+        <v>45689</v>
+      </c>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
       <c r="D80" s="39"/>
@@ -4476,7 +4534,9 @@
       <c r="K80" s="20"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A81" s="40"/>
+      <c r="A81" s="40">
+        <v>45717</v>
+      </c>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
       <c r="D81" s="39"/>
@@ -4492,7 +4552,9 @@
       <c r="K81" s="20"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A82" s="40"/>
+      <c r="A82" s="40">
+        <v>45748</v>
+      </c>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
       <c r="D82" s="39"/>
@@ -4508,7 +4570,9 @@
       <c r="K82" s="20"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A83" s="40"/>
+      <c r="A83" s="40">
+        <v>45778</v>
+      </c>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
       <c r="D83" s="39"/>
@@ -4524,7 +4588,9 @@
       <c r="K83" s="20"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A84" s="40"/>
+      <c r="A84" s="40">
+        <v>45809</v>
+      </c>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
       <c r="D84" s="39"/>
@@ -4540,7 +4606,9 @@
       <c r="K84" s="20"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A85" s="40"/>
+      <c r="A85" s="40">
+        <v>45839</v>
+      </c>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
       <c r="D85" s="39"/>
@@ -4556,7 +4624,9 @@
       <c r="K85" s="20"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A86" s="40"/>
+      <c r="A86" s="40">
+        <v>45870</v>
+      </c>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
       <c r="D86" s="39"/>
@@ -4572,7 +4642,9 @@
       <c r="K86" s="20"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A87" s="40"/>
+      <c r="A87" s="40">
+        <v>45901</v>
+      </c>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
       <c r="D87" s="39"/>
@@ -4588,7 +4660,9 @@
       <c r="K87" s="20"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A88" s="40"/>
+      <c r="A88" s="40">
+        <v>45931</v>
+      </c>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
       <c r="D88" s="39"/>
@@ -4604,7 +4678,9 @@
       <c r="K88" s="20"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A89" s="40"/>
+      <c r="A89" s="40">
+        <v>45962</v>
+      </c>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
       <c r="D89" s="39"/>
@@ -4620,7 +4696,9 @@
       <c r="K89" s="20"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A90" s="40"/>
+      <c r="A90" s="40">
+        <v>45992</v>
+      </c>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
       <c r="D90" s="39"/>
@@ -4636,7 +4714,9 @@
       <c r="K90" s="20"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A91" s="40"/>
+      <c r="A91" s="40">
+        <v>46023</v>
+      </c>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
       <c r="D91" s="39"/>
@@ -4652,7 +4732,9 @@
       <c r="K91" s="20"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A92" s="40"/>
+      <c r="A92" s="40">
+        <v>46054</v>
+      </c>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
       <c r="D92" s="39"/>
@@ -4668,7 +4750,9 @@
       <c r="K92" s="20"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A93" s="40"/>
+      <c r="A93" s="40">
+        <v>46082</v>
+      </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
       <c r="D93" s="39"/>
@@ -5005,17 +5089,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
@@ -5167,7 +5251,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <f>SUM('2018 LEAVE CREDITS'!E9,'2018 LEAVE CREDITS'!I9)</f>
-        <v>82.415999999999997</v>
+        <v>92.415999999999997</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
